--- a/tests/multialgorithm/fixtures/test_dry_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_dry_model.xlsx
@@ -1,45 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_dev_repos/wc_sim/tests/multialgorithm/fixtures/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Taxon" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Taxon" sheetId="2" r:id="rId2"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
+    <sheet name="Species types" sheetId="5" r:id="rId5"/>
+    <sheet name="Concentrations" sheetId="6" r:id="rId6"/>
+    <sheet name="Observables" sheetId="7" r:id="rId7"/>
+    <sheet name="Functions" sheetId="8" r:id="rId8"/>
+    <sheet name="Reactions" sheetId="9" r:id="rId9"/>
+    <sheet name="Rate laws" sheetId="10" r:id="rId10"/>
+    <sheet name="Biomass components" sheetId="11" r:id="rId11"/>
+    <sheet name="Biomass reactions" sheetId="12" r:id="rId12"/>
+    <sheet name="Parameters" sheetId="13" r:id="rId13"/>
+    <sheet name="Stop conditions" sheetId="14" r:id="rId14"/>
+    <sheet name="References" sheetId="15" r:id="rId15"/>
+    <sheet name="Database references" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">Compartments!$A$1:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14">References!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4">'Species types'!$A$1:$J$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -48,436 +53,434 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="139">
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASP_test_2016_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASP test model 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/org/repo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wc_lang version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASP_test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test model for TestExecutableModel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank not used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism_biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O2Na3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3SO4C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NaCl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c] / k_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fractionDryWeight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction of cell mass which is non water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dimensionless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Ref-0006]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="139">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>ASP_test_2016_2</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ASP test model 2</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.0.1</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://github.com/org/repo</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>hash</t>
+  </si>
+  <si>
+    <t>wc_lang version</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>ASP_test</t>
+  </si>
+  <si>
+    <t>Test model for TestExecutableModel</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>Rank not used</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Biomass reaction</t>
+  </si>
+  <si>
+    <t>Objective function</t>
+  </si>
+  <si>
+    <t>submodel_1</t>
+  </si>
+  <si>
+    <t>Metabolism</t>
+  </si>
+  <si>
+    <t>dfba</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Metabolism_biomass</t>
+  </si>
+  <si>
+    <t>For testing</t>
+  </si>
+  <si>
+    <t>submodel_2</t>
+  </si>
+  <si>
+    <t>RNA degradation</t>
+  </si>
+  <si>
+    <t>ssa</t>
+  </si>
+  <si>
+    <t>Initial volume</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>specie_1</t>
+  </si>
+  <si>
+    <t>specie_name_1</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>specie_2</t>
+  </si>
+  <si>
+    <t>specie_name_2</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>specie_3</t>
+  </si>
+  <si>
+    <t>specie_name_3</t>
+  </si>
+  <si>
+    <t>N2O2Na3</t>
+  </si>
+  <si>
+    <t>specie_4</t>
+  </si>
+  <si>
+    <t>specie_name_4</t>
+  </si>
+  <si>
+    <t>H3SO4C9</t>
+  </si>
+  <si>
+    <t>specie_5</t>
+  </si>
+  <si>
+    <t>specie_name_5</t>
+  </si>
+  <si>
+    <t>NaCl</t>
+  </si>
+  <si>
+    <t>specie_6</t>
+  </si>
+  <si>
+    <t>specie_name_6</t>
+  </si>
+  <si>
+    <t>U238</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>specie_1[e]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>specie_2[e]</t>
+  </si>
+  <si>
+    <t>specie_2[c]</t>
+  </si>
+  <si>
+    <t>specie_4[c]</t>
+  </si>
+  <si>
+    <t>specie_5[c]</t>
+  </si>
+  <si>
+    <t>specie_6[c]</t>
+  </si>
+  <si>
+    <t>Observables</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Min flux</t>
+  </si>
+  <si>
+    <t>Max flux</t>
+  </si>
+  <si>
+    <t>reaction_1</t>
+  </si>
+  <si>
+    <t>reaction_name_1</t>
+  </si>
+  <si>
+    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t>reaction_2</t>
+  </si>
+  <si>
+    <t>reaction_name_2</t>
+  </si>
+  <si>
+    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t>reaction_3</t>
+  </si>
+  <si>
+    <t>reaction_name_3</t>
+  </si>
+  <si>
+    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t>reaction_4</t>
+  </si>
+  <si>
+    <t>reaction_name_4</t>
+  </si>
+  <si>
+    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Equation</t>
+  </si>
+  <si>
+    <t>K cat</t>
+  </si>
+  <si>
+    <t>K m</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t>k_cat * specie_2[c]</t>
+  </si>
+  <si>
+    <t>specie_4[c] / k_m</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>specie_5[c] + specie_6[c]</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>biomass_id_001</t>
+  </si>
+  <si>
+    <t>biomass_comp_1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>biomass_id_002</t>
+  </si>
+  <si>
+    <t>biomass_comp_2</t>
+  </si>
+  <si>
+    <t>biomass_id_003</t>
+  </si>
+  <si>
+    <t>biomass_comp_3</t>
+  </si>
+  <si>
+    <t>biomass_id_004</t>
+  </si>
+  <si>
+    <t>biomass_comp_4</t>
+  </si>
+  <si>
+    <t>Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t>No comment</t>
+  </si>
+  <si>
+    <t>Submodels</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>Fraction of cell mass which is non water</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>[Ref-0006]</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Edition</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00E+00"/>
-    <numFmt numFmtId="166" formatCode="0.000E+00"/>
-    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -486,22 +489,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -523,10 +511,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -546,149 +541,85 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -747,72 +678,320 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,7 +999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -828,7 +1007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -836,50 +1015,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://github.com/org/repo"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -902,112 +1070,103 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="6">
         <v>2000</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="6" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="6" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="6" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>0.001</v>
+      <c r="D6" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="18" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
+    <col min="1" max="7" width="8.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>106</v>
       </c>
@@ -1040,7 +1199,7 @@
       <c r="C2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="21" t="n">
+      <c r="D2" s="21">
         <v>-3</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1051,7 +1210,7 @@
       </c>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>109</v>
       </c>
@@ -1061,14 +1220,14 @@
       <c r="C3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="21" t="n">
+      <c r="D3" s="21">
         <v>-4</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>111</v>
       </c>
@@ -1078,14 +1237,14 @@
       <c r="C4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="21" t="n">
+      <c r="D4" s="21">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>113</v>
       </c>
@@ -1095,7 +1254,7 @@
       <c r="C5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="21" t="n">
+      <c r="D5" s="21">
         <v>2</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -1103,34 +1262,25 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="18" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
+    <col min="1" max="5" width="8.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
@@ -1162,34 +1312,25 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.78542510121457"/>
+    <col min="1" max="8" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +1356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>118</v>
       </c>
@@ -1225,7 +1366,7 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1237,79 +1378,56 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="18" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.78542510121457"/>
+    <col min="1" max="18" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,34 +1485,20 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
@@ -1427,106 +1531,84 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="155" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
+    <col min="1" max="9" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -1581,7 +1663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -1599,34 +1681,25 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
+    <col min="1" max="7" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1640,13 +1713,16 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1656,14 +1732,15 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="n">
-        <v>4.58E-017</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="6">
+        <v>4.58E-17</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -1673,44 +1750,35 @@
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="6">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:F3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="10" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
+    <col min="1" max="10" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1742,24 +1810,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="0"/>
+      <c r="D2"/>
       <c r="E2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3">
         <v>0</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -1767,24 +1835,24 @@
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="0"/>
+      <c r="D3"/>
       <c r="E3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -1792,24 +1860,24 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="0"/>
+      <c r="D4"/>
       <c r="E4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -1817,24 +1885,24 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="0"/>
+      <c r="D5"/>
       <c r="E5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -1842,24 +1910,24 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="0"/>
+      <c r="D6"/>
       <c r="E6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -1867,7 +1935,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
@@ -1881,10 +1949,10 @@
       <c r="E7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>6</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="8">
         <v>0</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -1893,35 +1961,25 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J6"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="184" zoomScaleNormal="184" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView zoomScale="184" zoomScaleNormal="184" zoomScalePageLayoutView="184" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="3" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
+    <col min="1" max="5" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -1938,192 +1996,157 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="7" t="n">
-        <v>0.000148</v>
+      <c r="B2" s="7">
+        <v>1.4799999999999999E-4</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="7" t="n">
-        <v>0.0002</v>
+      <c r="B3" s="7">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>0.0005</v>
+      <c r="B4" s="7">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="7" t="n">
-        <v>0.0005</v>
+      <c r="B5" s="7">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>0.001</v>
+      <c r="B6" s="7">
+        <v>1E-3</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="7" t="n">
-        <v>0.002</v>
+      <c r="B7" s="7">
+        <v>2E-3</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="8" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
+    <col min="1" max="9" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2152,7 +2175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>81</v>
       </c>
@@ -2165,19 +2188,19 @@
       <c r="D2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="13">
         <v>0</v>
       </c>
-      <c r="F2" s="13" t="n">
+      <c r="F2" s="13">
         <v>0</v>
       </c>
-      <c r="G2" s="13" t="n">
+      <c r="G2" s="13">
         <v>1</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>84</v>
       </c>
@@ -2190,7 +2213,7 @@
       <c r="D3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="13">
         <v>1</v>
       </c>
       <c r="F3" s="13"/>
@@ -2198,7 +2221,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>87</v>
       </c>
@@ -2211,7 +2234,7 @@
       <c r="D4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="13">
         <v>1</v>
       </c>
       <c r="F4" s="14"/>
@@ -2219,7 +2242,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>90</v>
       </c>
@@ -2232,7 +2255,7 @@
       <c r="D5" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="13">
         <v>0</v>
       </c>
       <c r="F5" s="14"/>
@@ -2242,13 +2265,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D5"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>